--- a/cognite/neat/legacy/rules/examples/Rules-Nordic44-to-graphql.xlsx
+++ b/cognite/neat/legacy/rules/examples/Rules-Nordic44-to-graphql.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Secondary/repos/neat/cognite/neat/rules/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikola/Repos/neat/cognite/neat/legacy/rules/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7A0B6A-107A-FC4C-AEEE-2EB8970117DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C841CC7D-B0B4-F446-A471-F2608585098E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31820" yWindow="5740" windowWidth="35560" windowHeight="23060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31820" yWindow="5740" windowWidth="35560" windowHeight="23060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="152">
-  <si>
-    <t>tnt</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="152">
   <si>
     <t>version</t>
   </si>
@@ -44,13 +41,7 @@
     <t>title</t>
   </si>
   <si>
-    <t>TNT Data Model</t>
-  </si>
-  <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>This is TNT App data model which represents reduced version of CIM data model used by Statnett.</t>
   </si>
   <si>
     <t>abstract</t>
@@ -311,28 +302,10 @@
     <t>rdf:type</t>
   </si>
   <si>
-    <t>tnt:RootCIMNode</t>
-  </si>
-  <si>
-    <t>tnt:IdentifiedObject.description</t>
-  </si>
-  <si>
     <t>Root CIM Node</t>
   </si>
   <si>
-    <t>tnt:Orphanage</t>
-  </si>
-  <si>
     <t>Orphanage</t>
-  </si>
-  <si>
-    <t>tnt:IdentifiedObject.name</t>
-  </si>
-  <si>
-    <t>tnt:cdfResourceType</t>
-  </si>
-  <si>
-    <t>tnt:type</t>
   </si>
   <si>
     <t>Used as root asset for all CIM objects</t>
@@ -345,27 +318,6 @@
   </si>
   <si>
     <t>root-node</t>
-  </si>
-  <si>
-    <t>tnt:RootCIMNode.node</t>
-  </si>
-  <si>
-    <t>tnt:root-node</t>
-  </si>
-  <si>
-    <t>tnt:Orphanage(tnt:IdentifiedObject.mRID)</t>
-  </si>
-  <si>
-    <t>tnt:Orphanage(tnt:IdentifiedObject.name)</t>
-  </si>
-  <si>
-    <t>tnt:RootCIMNode(tnt:IdentifiedObject.mRID)</t>
-  </si>
-  <si>
-    <t>tnt:RootCIMNode(tnt:IdentifiedObject.name)</t>
-  </si>
-  <si>
-    <t>cim:GeographicalRegion(tnt:RootCIMNode.node)</t>
   </si>
   <si>
     <t>nordic44</t>
@@ -759,9 +711,6 @@
     <t>Neat default namespace</t>
   </si>
   <si>
-    <t>http://purl.org/cognite/tnt#</t>
-  </si>
-  <si>
     <t>namespace</t>
   </si>
   <si>
@@ -785,6 +734,57 @@
   <si>
     <t>rootNode</t>
   </si>
+  <si>
+    <t>Simple CIM</t>
+  </si>
+  <si>
+    <t>This is a simplified data model representing reduced version of CIM.</t>
+  </si>
+  <si>
+    <t>simplecim</t>
+  </si>
+  <si>
+    <t>http://purl.org/cognite/simplecim#</t>
+  </si>
+  <si>
+    <t>simplecim:Orphanage(simplecim:IdentifiedObject.mRID)</t>
+  </si>
+  <si>
+    <t>simplecim:Orphanage(simplecim:IdentifiedObject.name)</t>
+  </si>
+  <si>
+    <t>simplecim:RootCIMNode(simplecim:IdentifiedObject.mRID)</t>
+  </si>
+  <si>
+    <t>simplecim:RootCIMNode(simplecim:IdentifiedObject.name)</t>
+  </si>
+  <si>
+    <t>cim:GeographicalRegion(simplecim:RootCIMNode.node)</t>
+  </si>
+  <si>
+    <t>simplecim:RootCIMNode</t>
+  </si>
+  <si>
+    <t>simplecim:IdentifiedObject.description</t>
+  </si>
+  <si>
+    <t>simplecim:IdentifiedObject.name</t>
+  </si>
+  <si>
+    <t>simplecim:cdfResourceType</t>
+  </si>
+  <si>
+    <t>simplecim:type</t>
+  </si>
+  <si>
+    <t>simplecim:Orphanage</t>
+  </si>
+  <si>
+    <t>simplecim:RootCIMNode.node</t>
+  </si>
+  <si>
+    <t>simplecim:root-node</t>
+  </si>
 </sst>
 </file>
 
@@ -793,11 +793,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1242,167 +1249,170 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1730,14 +1740,14 @@
   </sheetPr>
   <dimension ref="A1:W999"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="83" customWidth="1"/>
     <col min="4" max="4" width="50.33203125" customWidth="1"/>
     <col min="5" max="5" width="45.33203125" customWidth="1"/>
@@ -1749,10 +1759,10 @@
   <sheetData>
     <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1778,10 +1788,10 @@
     </row>
     <row r="2" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1807,10 +1817,10 @@
     </row>
     <row r="3" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="5"/>
@@ -1836,7 +1846,7 @@
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="8" t="b">
         <v>1</v>
@@ -1865,7 +1875,7 @@
     </row>
     <row r="5" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="9">
         <v>44833</v>
@@ -1894,10 +1904,10 @@
     </row>
     <row r="6" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5"/>
@@ -1923,10 +1933,10 @@
     </row>
     <row r="7" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5"/>
@@ -1952,7 +1962,7 @@
     </row>
     <row r="8" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -1979,10 +1989,10 @@
     </row>
     <row r="9" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5"/>
@@ -2008,7 +2018,7 @@
     </row>
     <row r="10" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -2035,10 +2045,10 @@
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5"/>
@@ -2064,10 +2074,10 @@
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2093,7 +2103,7 @@
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
@@ -26770,7 +26780,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{4C5500DE-C402-7B42-8B59-6E892B1A50D9}"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://purl.org/cognite/simple-cim#" xr:uid="{4C5500DE-C402-7B42-8B59-6E892B1A50D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -26785,7 +26795,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="207" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26796,134 +26806,142 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="64" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="59" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="66" t="s">
         <v>117</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="59" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="59" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="59" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="59" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="59" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="65" t="s">
         <v>114</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="71" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>142</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -26943,6 +26961,7 @@
     <hyperlink ref="B4" r:id="rId9" xr:uid="{3AF693B8-84D6-C748-A981-4069BDE6B7E6}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{75538B98-5375-CF4D-B6A7-7A2A4F28FBCB}"/>
     <hyperlink ref="B12" r:id="rId11" xr:uid="{A5F1C332-0E06-024A-B3A4-50675E9630B8}"/>
+    <hyperlink ref="B13" r:id="rId12" display="http://purl.org/cognite/simple-cim#" xr:uid="{0A41CB1D-518F-8C48-8ACE-4876BF26EB1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -26979,17 +26998,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
       <c r="D1" s="73" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E1" s="74"/>
       <c r="F1" s="18"/>
       <c r="G1" s="75" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H1" s="75"/>
       <c r="I1" s="75"/>
@@ -26999,55 +27018,55 @@
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="E2" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="L2" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="12"/>
@@ -27059,17 +27078,17 @@
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="12"/>
@@ -27081,15 +27100,15 @@
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="12"/>
@@ -27101,13 +27120,13 @@
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="12"/>
@@ -27119,14 +27138,14 @@
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="22"/>
@@ -27139,15 +27158,15 @@
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="12"/>
@@ -27159,7 +27178,7 @@
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -27318,8 +27337,8 @@
   </sheetPr>
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="G1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27349,7 +27368,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="78" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
@@ -27357,7 +27376,7 @@
       <c r="E1" s="78"/>
       <c r="F1" s="78"/>
       <c r="G1" s="77" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H1" s="77"/>
       <c r="I1" s="77"/>
@@ -27365,11 +27384,11 @@
       <c r="K1" s="77"/>
       <c r="L1" s="77"/>
       <c r="M1" s="76" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N1" s="76"/>
       <c r="O1" s="75" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P1" s="75"/>
       <c r="Q1" s="75"/>
@@ -27379,76 +27398,76 @@
     </row>
     <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="H2" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="O2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="S2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="T2" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C3" s="45"/>
       <c r="D3" s="44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" s="46">
         <v>1</v>
@@ -27457,20 +27476,20 @@
         <v>1</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H3" s="44" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
       <c r="L3" s="44"/>
       <c r="M3" s="47" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N3" s="55" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="O3" s="17"/>
       <c r="P3" s="17"/>
@@ -27481,14 +27500,14 @@
     </row>
     <row r="4" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" s="45"/>
       <c r="D4" s="44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" s="46">
         <v>1</v>
@@ -27497,20 +27516,20 @@
         <v>1</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I4" s="44"/>
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
       <c r="L4" s="44"/>
       <c r="M4" s="47" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N4" s="55" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
@@ -27521,14 +27540,14 @@
     </row>
     <row r="5" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" s="36">
         <v>1</v>
@@ -27537,20 +27556,20 @@
         <v>1</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
       <c r="M5" s="48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N5" s="48" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
@@ -27561,14 +27580,14 @@
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" s="36">
         <v>1</v>
@@ -27577,20 +27596,20 @@
         <v>1</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
       <c r="M6" s="48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N6" s="48" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
@@ -27601,14 +27620,14 @@
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" s="30">
         <v>1</v>
@@ -27617,20 +27636,20 @@
         <v>1</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
       <c r="M7" s="49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N7" s="56" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
@@ -27641,14 +27660,14 @@
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" s="30">
         <v>1</v>
@@ -27657,20 +27676,20 @@
         <v>1</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
       <c r="M8" s="49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N8" s="49" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
@@ -27681,14 +27700,14 @@
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E9" s="30">
         <v>1</v>
@@ -27697,22 +27716,22 @@
         <v>1</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
       <c r="K9" s="28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N9" s="49" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="O9" s="17"/>
       <c r="P9" s="17"/>
@@ -27723,14 +27742,14 @@
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" s="27">
         <v>1</v>
@@ -27739,20 +27758,20 @@
         <v>1</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
       <c r="M10" s="50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N10" s="57" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
@@ -27763,14 +27782,14 @@
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" s="27">
         <v>1</v>
@@ -27779,20 +27798,20 @@
         <v>1</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
       <c r="M11" s="50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N11" s="50" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
@@ -27803,14 +27822,14 @@
     </row>
     <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E12" s="27">
         <v>1</v>
@@ -27819,22 +27838,22 @@
         <v>1</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L12" s="25"/>
       <c r="M12" s="50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N12" s="50" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
@@ -27845,16 +27864,16 @@
     </row>
     <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" s="21">
         <v>1</v>
@@ -27863,20 +27882,20 @@
         <v>1</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
       <c r="M13" s="41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N13" s="58" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
@@ -27887,16 +27906,16 @@
     </row>
     <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E14" s="21">
         <v>1</v>
@@ -27905,20 +27924,20 @@
         <v>1</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
       <c r="M14" s="41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N14" s="41" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
@@ -27929,16 +27948,16 @@
     </row>
     <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>21</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>24</v>
       </c>
       <c r="E15" s="21">
         <v>1</v>
@@ -27947,20 +27966,20 @@
         <v>1</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N15" s="41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
@@ -27971,36 +27990,36 @@
     </row>
     <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16" s="21">
         <v>1</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N16" s="41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
@@ -28011,14 +28030,14 @@
     </row>
     <row r="17" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E17" s="33">
         <v>1</v>
@@ -28027,20 +28046,20 @@
         <v>1</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
       <c r="M17" s="51" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N17" s="54" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
@@ -28051,14 +28070,14 @@
     </row>
     <row r="18" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E18" s="33">
         <v>1</v>
@@ -28067,20 +28086,20 @@
         <v>1</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
       <c r="L18" s="32"/>
       <c r="M18" s="51" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N18" s="51" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
@@ -28091,14 +28110,14 @@
     </row>
     <row r="19" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E19" s="33">
         <v>0</v>
@@ -28107,20 +28126,20 @@
         <v>1</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
       <c r="M19" s="51" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N19" s="67" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
@@ -28131,14 +28150,14 @@
     </row>
     <row r="20" spans="1:20" ht="175" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E20" s="33">
         <v>1</v>
@@ -28147,22 +28166,22 @@
         <v>1</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
       <c r="K20" s="32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L20" s="32"/>
       <c r="M20" s="69" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="N20" s="68" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
@@ -28194,7 +28213,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="233" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28206,142 +28225,142 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="79" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="81"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="70" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
